--- a/public/assets/event_spreadsheet_template.xlsx
+++ b/public/assets/event_spreadsheet_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhenil\Development\Blockchain Projects\E-certo\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A63CE-2202-4035-BA18-62D03AC7E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FE6107-A641-4633-B500-9349B2A4E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>jhenilparihar121@gmail.com</t>
   </si>
   <si>
-    <t>Jhenil Parihar</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
     <t>Web/App Development</t>
+  </si>
+  <si>
+    <t>Jack</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>9004690126</v>
